--- a/Ultimate_Job_Search_Tracker.xlsx
+++ b/Ultimate_Job_Search_Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2316F9E6-83A8-403B-849D-968338A46C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAFFFDC-B2C0-4CEB-B3A5-B5F1E9988C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Job Applications" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>Date Applied</t>
   </si>
@@ -131,15 +131,9 @@
     <t>🗺️ Create a Strategy</t>
   </si>
   <si>
-    <t>Set a 4-week roadmap: resume, profile update, applications, referrals, interview prep.</t>
-  </si>
-  <si>
     <t>📑 Resume Tips</t>
   </si>
   <si>
-    <t>Tailor for each role, focus on outcomes. Use metrics. Avoid generic summaries.</t>
-  </si>
-  <si>
     <t>🔍 Where to Apply</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
     <t>🎯 Daily Goals</t>
   </si>
   <si>
-    <t>Apply to 3 jobs, follow up 2 referrals, practice 1 interview question.</t>
-  </si>
-  <si>
     <t>🧘 Long Game</t>
   </si>
   <si>
@@ -201,6 +192,18 @@
   </si>
   <si>
     <t>It’s okay to take some time to absorb. Talk to people you trust. Take a few days to reflect before jumping into the job hunt.</t>
+  </si>
+  <si>
+    <t>Compensation</t>
+  </si>
+  <si>
+    <t>Set a 4-week roadmap: ATS friendly resume, profile update, applications, referrals, interview prep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make it ATS friendly, focus on outcomes. Use metrics. Avoid generic summaries. </t>
+  </si>
+  <si>
+    <t>Apply to 10 jobs, follow up 2 referrals, practice 5 interview question. Try to avoid easy apply as there would be already a lot of applications</t>
   </si>
 </sst>
 </file>
@@ -571,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,10 +588,12 @@
     <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -614,10 +619,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
   </sheetData>
@@ -640,6 +648,7 @@
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="30.21875" customWidth="1"/>
     <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -672,7 +681,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,7 +723,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -759,7 +770,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -804,14 +817,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="114.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -827,7 +840,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -843,55 +856,55 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -903,7 +916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -918,16 +933,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -939,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,19 +969,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Ultimate_Job_Search_Tracker.xlsx
+++ b/Ultimate_Job_Search_Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAFFFDC-B2C0-4CEB-B3A5-B5F1E9988C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ADC01E-87FB-4574-8950-B6972E793B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Job Applications" sheetId="1" r:id="rId1"/>
@@ -194,9 +194,6 @@
     <t>It’s okay to take some time to absorb. Talk to people you trust. Take a few days to reflect before jumping into the job hunt.</t>
   </si>
   <si>
-    <t>Compensation</t>
-  </si>
-  <si>
     <t>Set a 4-week roadmap: ATS friendly resume, profile update, applications, referrals, interview prep.</t>
   </si>
   <si>
@@ -204,6 +201,9 @@
   </si>
   <si>
     <t>Apply to 10 jobs, follow up 2 referrals, practice 5 interview question. Try to avoid easy apply as there would be already a lot of applications</t>
+  </si>
+  <si>
+    <t>What excites this opportunity</t>
   </si>
 </sst>
 </file>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -856,7 +856,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -864,7 +864,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -896,7 +896,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -954,7 +954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
